--- a/шаблон.xlsx
+++ b/шаблон.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1170" windowWidth="28245" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="1170" windowWidth="28245" windowHeight="13350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список обрабатываемых SKU" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Благодарность</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Миссия нашего бренда - искренне заботиться о вас и вашей естественной красоте.</t>
   </si>
   <si>
-    <t>Добрый день! Спасибо, что выбрали нас и наше бережное уходовое средство.</t>
-  </si>
-  <si>
     <t>Здорово, что вы доверяете нашему бренду и делаете выбор в пользу своей естественной красоты.</t>
   </si>
   <si>
@@ -133,51 +130,24 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>Здравствуйте! Спасибо за выбор уходового средства Faberlic.</t>
-  </si>
-  <si>
     <t>С заботой, Faberlic.</t>
   </si>
   <si>
     <t>Ваша команда Faberlic.</t>
   </si>
   <si>
-    <t>Привет! Спасибо, что выбрали нас и ТОПовый уход Faberlic.</t>
-  </si>
-  <si>
     <t>С вниманием и заботой, ваш Faberlic.</t>
   </si>
   <si>
-    <t>Здравствуйте! Спасибо за выбор нашего ухода Faberlic.</t>
-  </si>
-  <si>
-    <t>Добрый день! Спасибо, что выбрали уход Faberlic.</t>
-  </si>
-  <si>
     <t>Нас очень вдохновляет ваш позитивный опыт использования косметических продуктов Faberlic.</t>
   </si>
   <si>
     <t>Ваш Faberlic.</t>
   </si>
   <si>
-    <t>Привет! Мы поддерживаем ваш выбор Faberlic.</t>
-  </si>
-  <si>
     <t>С заботой, ваш Faberlic.</t>
   </si>
   <si>
-    <t>Добрый день! Отличный выбор в пользу нашего уходового средства Faberlic.</t>
-  </si>
-  <si>
-    <t>Здравствуй! Благодарим за выбор ухода Faberlic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! Отличное решение - сделать выбор в пользу уходового средства Faberlic. </t>
-  </si>
-  <si>
-    <t>Привет! Спасибо, что выбрали нас и ТОПовый уход Faberlic -</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -251,24 +221,6 @@
   </si>
   <si>
     <t>Для того, чтобы подчеркнуть ваши естественные природные штрихи, советуем отличный уход Faberlic -</t>
-  </si>
-  <si>
-    <t>Здравствуйте! Спасибо за выбор уходового средства Faberlic -</t>
-  </si>
-  <si>
-    <t>Добрый день! Спасибо, что выбрали нас и наше бережное уходовое средство -</t>
-  </si>
-  <si>
-    <t>Добрый день! Спасибо, что выбрали уход Faberlic -</t>
-  </si>
-  <si>
-    <t>Привет! Мы поддерживаем ваш выбор -</t>
-  </si>
-  <si>
-    <t>Добрый день! Отличный выбор в пользу нашего уходового средства -</t>
-  </si>
-  <si>
-    <t>Здравствуйте! Спасибо за выбор нашего ухода -</t>
   </si>
   <si>
     <t>Уверены, вы оцените и другие наши средства для ухода, к примеру, наш бестселлер -</t>
@@ -302,6 +254,60 @@
   </si>
   <si>
     <t>Интересно услышать ваше мнение и о другом нашем уходе за кожей -</t>
+  </si>
+  <si>
+    <t>$123 Спасибо за выбор уходового средства Faberlic -</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали нас и наше бережное уходовое средство -</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали нас и ТОПовый уход Faberlic -</t>
+  </si>
+  <si>
+    <t>$123 Спасибо за выбор нашего ухода -</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали уход Faberlic -</t>
+  </si>
+  <si>
+    <t>$123 Мы поддерживаем ваш выбор -</t>
+  </si>
+  <si>
+    <t>$123 Отличный выбор в пользу нашего уходового средства -</t>
+  </si>
+  <si>
+    <t>$325, Faberlic.</t>
+  </si>
+  <si>
+    <t>$325 Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Спасибо за выбор уходового средства Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали нас и наше бережное уходовое средство.</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали нас и ТОПовый уход Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Спасибо за выбор нашего ухода Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Спасибо, что выбрали уход Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Мы поддерживаем ваш выбор Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Отличный выбор в пользу нашего уходового средства Faberlic.</t>
+  </si>
+  <si>
+    <t>$123 Благодарим за выбор ухода Faberlic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$123 Отличное решение - сделать выбор в пользу уходового средства Faberlic. </t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,7 +728,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -775,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +810,7 @@
     </row>
     <row r="2" spans="1:5" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -813,97 +819,97 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="71.25">
       <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="57">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="42.75">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="42.75">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="71.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="57">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -912,7 +918,7 @@
     </row>
     <row r="10" spans="1:5" ht="55.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -931,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,7 +971,7 @@
     </row>
     <row r="2" spans="1:7" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -974,122 +980,122 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="71.25">
+    <row r="3" spans="1:7" ht="57">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="57">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="28.5">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="71.25">
+    <row r="7" spans="1:7" ht="57">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="42.75">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1097,14 +1103,14 @@
     <row r="9" spans="1:7" ht="42.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1112,11 +1118,11 @@
     <row r="10" spans="1:7" ht="28.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7"/>
@@ -1125,11 +1131,11 @@
     <row r="11" spans="1:7" ht="28.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
@@ -1270,22 +1276,22 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>46471381</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6">
         <v>46584991</v>
@@ -1294,13 +1300,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>46584991</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6">
         <v>46471381</v>
@@ -1309,13 +1315,13 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6">
         <v>46472455</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6">
         <v>37199416</v>
@@ -1324,13 +1330,13 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6">
         <v>37199416</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>46472455</v>
@@ -1339,13 +1345,13 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6">
         <v>37355399</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6">
         <v>37145505</v>
@@ -1354,13 +1360,13 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6">
         <v>37348916</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6">
         <v>37145505</v>
@@ -1369,13 +1375,13 @@
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B8" s="10">
         <v>83922684</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6">
         <v>46472455</v>
@@ -1546,7 +1552,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,84 +1563,84 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
